--- a/EL SALVADOR/Género/UNICEF/Protección infantil y género Unicef 2019 El Salvador.xlsx
+++ b/EL SALVADOR/Género/UNICEF/Protección infantil y género Unicef 2019 El Salvador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Género\UNICEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B977D19-A6E4-4ECA-A236-936A73B05E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CCE3DF-4857-427A-B0D8-C7EB81629AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="1110" windowWidth="13515" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{8B859529-1372-45A7-8F7A-15D081915221}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8B859529-1372-45A7-8F7A-15D081915221}"/>
   </bookViews>
   <sheets>
     <sheet name="(Og) Protección Infantil y Gén" sheetId="1" r:id="rId1"/>
@@ -912,7 +912,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -956,9 +956,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1681,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6EC1AB-3FB2-4840-82AC-45168F436901}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1808,7 +1805,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1881,7 +1878,7 @@
       <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1909,7 +1906,7 @@
       <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -1951,7 +1948,7 @@
       <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>10</v>
       </c>
     </row>
@@ -1965,7 +1962,7 @@
       <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -1979,7 +1976,7 @@
       <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>10.8</v>
       </c>
     </row>
@@ -2007,7 +2004,7 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>54.6</v>
       </c>
     </row>
@@ -2021,7 +2018,7 @@
       <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>49.5</v>
       </c>
     </row>
@@ -2038,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643E17E1-DD5D-4838-B501-888C46745923}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
